--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.250297974242889</v>
+        <v>1.2502979741528364</v>
       </c>
       <c r="C2">
-        <v>2.1005999226012437</v>
+        <v>2.1005999222829712</v>
       </c>
       <c r="D2">
-        <v>3.2991885811508941</v>
+        <v>3.2991885792422453</v>
       </c>
       <c r="E2">
-        <v>5.0021785033231856</v>
+        <v>5.0021785029897803</v>
       </c>
       <c r="F2">
-        <v>2.1154517636233812</v>
+        <v>2.1154517602198766</v>
       </c>
       <c r="G2">
-        <v>1.2199684009461376</v>
+        <v>1.2199683961074688</v>
       </c>
       <c r="H2">
-        <v>1.7054476112877672</v>
+        <v>1.7054476042544238</v>
       </c>
       <c r="I2">
-        <v>2.2177889967997482</v>
+        <v>2.21778899698417</v>
       </c>
       <c r="J2">
-        <v>3.3175021065041719</v>
+        <v>3.3175021064866286</v>
       </c>
       <c r="K2">
-        <v>1.0838551893946435</v>
+        <v>1.0838551871639717</v>
       </c>
       <c r="L2">
-        <v>0.68861940099406405</v>
+        <v>0.68861940120605902</v>
       </c>
       <c r="M2">
-        <v>-0.80957097058651928</v>
+        <v>-0.80957097030924396</v>
       </c>
       <c r="N2">
-        <v>2.5159408625786672</v>
+        <v>2.5159408580457154</v>
       </c>
       <c r="O2">
-        <v>2.3618970473194523</v>
+        <v>2.3618970522743781</v>
       </c>
       <c r="P2">
-        <v>3.2663042622420062</v>
+        <v>3.2663042567352112</v>
       </c>
       <c r="Q2">
-        <v>0.4881473745505106</v>
+        <v>0.48814737294440241</v>
       </c>
       <c r="R2">
-        <v>-0.59112469376488797</v>
+        <v>-0.5911246880189821</v>
       </c>
       <c r="S2">
-        <v>4.6224695984948045</v>
+        <v>4.6224695984703708</v>
       </c>
       <c r="T2">
-        <v>3.4416863657379602</v>
+        <v>3.4416863656759973</v>
       </c>
       <c r="U2">
-        <v>0.74179220292483539</v>
+        <v>0.74179219956533016</v>
       </c>
       <c r="V2">
-        <v>1.7701017982047866</v>
+        <v>1.7701017978053557</v>
       </c>
       <c r="W2">
-        <v>-0.56990561779591331</v>
+        <v>-0.56990563920414961</v>
       </c>
       <c r="X2">
-        <v>1.1373125780842277</v>
+        <v>1.1373125771847032</v>
       </c>
       <c r="Y2">
-        <v>4.2444364815229685</v>
+        <v>4.2444364780622479</v>
       </c>
       <c r="Z2">
-        <v>2.5627620270980103</v>
+        <v>2.5627620222372092</v>
       </c>
       <c r="AA2">
-        <v>5.5424456962291044</v>
+        <v>5.5424456911415545</v>
       </c>
       <c r="AB2">
-        <v>4.7743794396531101</v>
+        <v>4.7743794280623479</v>
       </c>
       <c r="AC2">
-        <v>1.4265851091745543</v>
+        <v>1.4265851003066854</v>
       </c>
       <c r="AD2">
-        <v>6.4836166800376498</v>
+        <v>6.4836166844252832</v>
       </c>
       <c r="AE2">
-        <v>2.635973422037853</v>
+        <v>2.6359734215181918</v>
       </c>
       <c r="AF2">
-        <v>3.0790168453944595</v>
+        <v>3.0790168382307659</v>
       </c>
       <c r="AG2">
-        <v>3.4146744680253076</v>
+        <v>3.4146744585557087</v>
       </c>
       <c r="AH2">
-        <v>3.1665167372453817</v>
+        <v>3.1665167326359467</v>
       </c>
       <c r="AI2">
-        <v>4.712879381924397</v>
+        <v>4.7128793424123172</v>
       </c>
       <c r="AJ2">
-        <v>2.6400987691734765</v>
+        <v>2.6400987612449009</v>
       </c>
       <c r="AK2">
-        <v>3.1645107297347099</v>
+        <v>3.1645107253903246</v>
       </c>
       <c r="AL2">
-        <v>0.51591798284468382</v>
+        <v>0.51591797443800869</v>
       </c>
       <c r="AM2">
-        <v>3.4793418712041668</v>
+        <v>3.479341849987208</v>
       </c>
       <c r="AN2">
-        <v>3.221022295401025</v>
+        <v>3.2210222859612787</v>
       </c>
       <c r="AO2">
-        <v>5.575993768280199</v>
+        <v>5.5759937725915529</v>
       </c>
       <c r="AP2">
-        <v>3.1523177721329709</v>
+        <v>3.1523177661939732</v>
       </c>
       <c r="AQ2">
-        <v>0.91210513002151705</v>
+        <v>0.91210511408041928</v>
       </c>
       <c r="AR2">
-        <v>4.7454234020128512</v>
+        <v>4.745423402336522</v>
       </c>
       <c r="AS2">
-        <v>5.067472514111417</v>
+        <v>5.0674724984806039</v>
       </c>
       <c r="AT2">
-        <v>2.809646839580112</v>
+        <v>2.809646860966299</v>
       </c>
       <c r="AU2">
-        <v>2.8714063914836756</v>
+        <v>2.8714063793456495</v>
       </c>
       <c r="AV2">
-        <v>3.4246123799031016</v>
+        <v>3.4246123870777772</v>
       </c>
       <c r="AW2">
-        <v>1.9331400774068246</v>
+        <v>1.9331400513498667</v>
       </c>
       <c r="AX2">
-        <v>5.2322388011529277</v>
+        <v>5.2322387867157749</v>
       </c>
       <c r="AY2">
-        <v>5.5822545620103279</v>
+        <v>5.5822545518932021</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.9524522309614187</v>
+        <v>1.9524522001931957</v>
       </c>
       <c r="C3">
-        <v>2.1667453184674814</v>
+        <v>2.1667453166495996</v>
       </c>
       <c r="D3">
-        <v>4.0687112198381916</v>
+        <v>4.0687111985710462</v>
       </c>
       <c r="E3">
-        <v>3.7736856746909813</v>
+        <v>3.773685670972641</v>
       </c>
       <c r="F3">
-        <v>1.5463902505578315</v>
+        <v>1.5463902458567884</v>
       </c>
       <c r="G3">
-        <v>3.0656340404427782</v>
+        <v>3.065634036626776</v>
       </c>
       <c r="H3">
-        <v>0.43268345113828632</v>
+        <v>0.4326834517753006</v>
       </c>
       <c r="I3">
-        <v>0.97385151228486422</v>
+        <v>0.97385150961526634</v>
       </c>
       <c r="J3">
-        <v>4.121785994727488</v>
+        <v>4.1217859843425515</v>
       </c>
       <c r="K3">
-        <v>5.4448932635418359</v>
+        <v>5.4448932623307318</v>
       </c>
       <c r="L3">
-        <v>3.5164705040760023</v>
+        <v>3.5164704985968576</v>
       </c>
       <c r="M3">
-        <v>0.6916412204253275</v>
+        <v>0.69164604562320331</v>
       </c>
       <c r="N3">
-        <v>2.2032100752775867</v>
+        <v>2.2032100745536449</v>
       </c>
       <c r="O3">
-        <v>-2.109542728748417</v>
+        <v>-2.1095427292644109</v>
       </c>
       <c r="P3">
-        <v>3.7025084399960884</v>
+        <v>3.7025084312204624</v>
       </c>
       <c r="Q3">
-        <v>1.5445803559753981</v>
+        <v>1.5445803493132915</v>
       </c>
       <c r="R3">
-        <v>0.81958019990939146</v>
+        <v>0.81958017826096596</v>
       </c>
       <c r="S3">
-        <v>3.5990752509884394</v>
+        <v>3.5990752447925956</v>
       </c>
       <c r="T3">
-        <v>3.4924092853850888</v>
+        <v>3.4924092800213358</v>
       </c>
       <c r="U3">
-        <v>2.5802039512715274</v>
+        <v>2.5802039441907469</v>
       </c>
       <c r="V3">
-        <v>2.1977820603786542</v>
+        <v>2.1977820593633561</v>
       </c>
       <c r="W3">
-        <v>0.47404504722453322</v>
+        <v>0.47404503781400031</v>
       </c>
       <c r="X3">
-        <v>-0.14723488662387649</v>
+        <v>-0.1472348900451429</v>
       </c>
       <c r="Y3">
-        <v>5.1179149772604466</v>
+        <v>5.1179149664764987</v>
       </c>
       <c r="Z3">
-        <v>3.0129023714747705</v>
+        <v>3.0129023668809487</v>
       </c>
       <c r="AA3">
-        <v>5.1237030549358744</v>
+        <v>5.1237030630898257</v>
       </c>
       <c r="AB3">
-        <v>4.5979175754413282</v>
+        <v>4.5979175741360265</v>
       </c>
       <c r="AC3">
-        <v>5.7295550167502149</v>
+        <v>5.7295549924976612</v>
       </c>
       <c r="AD3">
-        <v>6.650214274831308</v>
+        <v>6.6502142755930862</v>
       </c>
       <c r="AE3">
-        <v>4.2374879220574879</v>
+        <v>4.2374879004313026</v>
       </c>
       <c r="AF3">
-        <v>3.4970033844238837</v>
+        <v>3.4970033699067566</v>
       </c>
       <c r="AG3">
-        <v>2.5719661461974832</v>
+        <v>2.5719661380206973</v>
       </c>
       <c r="AH3">
-        <v>2.0410624545470752</v>
+        <v>2.0410624486572204</v>
       </c>
       <c r="AI3">
-        <v>9.7729269986645928</v>
+        <v>9.7729269736497724</v>
       </c>
       <c r="AJ3">
-        <v>5.6364890976446747</v>
+        <v>5.636489080512602</v>
       </c>
       <c r="AK3">
-        <v>4.3823714234608246</v>
+        <v>4.3823713896647849</v>
       </c>
       <c r="AL3">
-        <v>2.8516847118744852</v>
+        <v>2.8516846987247608</v>
       </c>
       <c r="AM3">
-        <v>3.6460566364020681</v>
+        <v>3.6460566198073323</v>
       </c>
       <c r="AN3">
-        <v>-0.50051470591054104</v>
+        <v>-0.50051471051193852</v>
       </c>
       <c r="AO3">
-        <v>5.8944939465955501</v>
+        <v>5.8944939061238451</v>
       </c>
       <c r="AP3">
-        <v>1.5611193717665239</v>
+        <v>1.5611193648847723</v>
       </c>
       <c r="AQ3">
-        <v>2.3083734016569659</v>
+        <v>2.3083733937944659</v>
       </c>
       <c r="AR3">
-        <v>5.5888144032329548</v>
+        <v>5.5888144061457217</v>
       </c>
       <c r="AS3">
-        <v>3.8494867987265398</v>
+        <v>3.8494868020900177</v>
       </c>
       <c r="AT3">
-        <v>4.1973935778805931</v>
+        <v>4.1973935599866845</v>
       </c>
       <c r="AU3">
-        <v>2.2506634424721854</v>
+        <v>2.2506634227966491</v>
       </c>
       <c r="AV3">
-        <v>2.6333023961004347</v>
+        <v>2.6333023762330257</v>
       </c>
       <c r="AW3">
-        <v>2.8661342584489082</v>
+        <v>2.866134060672838</v>
       </c>
       <c r="AX3">
-        <v>2.9208010275459588</v>
+        <v>2.9208009790160365</v>
       </c>
       <c r="AY3">
-        <v>6.0543821967770839</v>
+        <v>6.0543821868196677</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.2502979741528364</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.1005999222829712</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.2991885792422453</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.0021785029897803</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.1154517602198766</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.2199683961074688</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.7054476042544238</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.21778899698417</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.3175021064866286</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.0838551871639717</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.68861940120605902</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.80957097030924396</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.5159408580457154</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.3618970522743781</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.2663042567352112</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.48814737294440241</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.5911246880189821</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.6224695984703708</v>
+        <v>3.3541478278806887</v>
       </c>
       <c r="T2">
         <v>3.4416863656759973</v>
@@ -588,55 +477,55 @@
         <v>2.5627620222372092</v>
       </c>
       <c r="AA2">
-        <v>5.5424456911415545</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.7743794280623479</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.4265851003066854</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.4836166844252832</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.6359734215181918</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.0790168382307659</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.4146744585557087</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.1665167326359467</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.7128793424123172</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.6400987612449009</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.1645107253903246</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.51591797443800869</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.479341849987208</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.2210222859612787</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.5759937725915529</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.1523177661939732</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.91210511408041928</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.745423402336522</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.9524522001931957</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.1667453166495996</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.0687111985710462</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.773685670972641</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.5463902458567884</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3.065634036626776</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.4326834517753006</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.97385150961526634</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.1217859843425515</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.4448932623307318</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.5164704985968576</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.69164604562320331</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.2032100745536449</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.1095427292644109</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.7025084312204624</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.5445803493132915</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.81958017826096596</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.5990752447925956</v>
@@ -743,55 +629,55 @@
         <v>3.0129023668809487</v>
       </c>
       <c r="AA3">
-        <v>5.1237030630898257</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.5979175741360265</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.7295549924976612</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>6.6502142755930862</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.2374879004313026</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.4970033699067566</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.5719661380206973</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.0410624486572204</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.7729269736497724</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>5.636489080512602</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.3823713896647849</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.8516846987247608</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.6460566198073323</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-0.50051471051193852</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>5.8944939061238451</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5611193648847723</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.3083733937944659</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.5888144061457217</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.250297974242889</v>
-      </c>
       <c r="C2">
-        <v>1.596557840295423</v>
-      </c>
-      <c r="D2">
-        <v>3.2991885811508941</v>
-      </c>
-      <c r="E2">
-        <v>5.0021785033231856</v>
+        <v>-0.5911246880189821</v>
       </c>
       <c r="F2">
         <v>2.1154517636233812</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.9524522309614187</v>
+        <v>-0.75226107008933984</v>
       </c>
       <c r="C3">
-        <v>2.1667453184674814</v>
+        <v>0.81958017826096596</v>
       </c>
       <c r="D3">
-        <v>4.0687112198381916</v>
+        <v>-9.6784206100009193E-2</v>
       </c>
       <c r="E3">
-        <v>3.7736856746909813</v>
+        <v>2.3909692343347553</v>
       </c>
       <c r="F3">
         <v>1.5463902505578315</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.250297974242889</v>
-      </c>
-      <c r="C2">
-        <v>1.596557840295423</v>
+        <v>2.3772960904422913</v>
       </c>
       <c r="D2">
-        <v>3.2991885811508941</v>
-      </c>
-      <c r="E2">
-        <v>5.0021785033231856</v>
+        <v>3.479341849987208</v>
       </c>
       <c r="F2">
         <v>2.1154517636233812</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.9524522309614187</v>
+        <v>2.2032100745536449</v>
       </c>
       <c r="C3">
-        <v>2.1667453184674814</v>
+        <v>-0.75226107008933984</v>
       </c>
       <c r="D3">
-        <v>4.0687112198381916</v>
+        <v>3.6460566198073323</v>
       </c>
       <c r="E3">
-        <v>5.0083434833582432</v>
+        <v>-9.6784206100009193E-2</v>
       </c>
       <c r="F3">
         <v>1.5463902505578315</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_msc_GM_Fuku_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.2502979741528364</v>
+      </c>
+      <c r="C2">
+        <v>1.596557841965732</v>
+      </c>
+      <c r="D2">
+        <v>3.2991885792422453</v>
+      </c>
+      <c r="E2">
+        <v>5.0021785029897803</v>
+      </c>
+      <c r="F2">
+        <v>2.1154517602198766</v>
+      </c>
+      <c r="G2">
+        <v>2.1616492624482264</v>
+      </c>
+      <c r="H2">
+        <v>1.7054476042544238</v>
+      </c>
+      <c r="I2">
+        <v>2.8937407193993998</v>
+      </c>
+      <c r="J2">
+        <v>3.3175021064866286</v>
+      </c>
+      <c r="K2">
+        <v>1.0838551871639717</v>
+      </c>
+      <c r="L2">
+        <v>1.1870097269952768</v>
+      </c>
+      <c r="M2">
+        <v>0.53455278635075842</v>
+      </c>
+      <c r="N2">
         <v>2.3772960904422913</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.5872872190077683</v>
+      </c>
+      <c r="Q2">
+        <v>0.48814737294440241</v>
+      </c>
+      <c r="R2">
+        <v>-0.5911246880189821</v>
+      </c>
+      <c r="T2">
+        <v>2.8185917171721013</v>
+      </c>
+      <c r="U2">
+        <v>0.74179219956533016</v>
+      </c>
+      <c r="V2">
+        <v>2.4413388604640156</v>
+      </c>
+      <c r="W2">
+        <v>-0.56990563920414961</v>
+      </c>
+      <c r="X2">
+        <v>1.1373125771847032</v>
+      </c>
+      <c r="Y2">
+        <v>4.2444364780622479</v>
+      </c>
+      <c r="Z2">
+        <v>2.5627620222372092</v>
+      </c>
+      <c r="AA2">
+        <v>5.5424456911415545</v>
+      </c>
+      <c r="AB2">
+        <v>4.7743794280623479</v>
+      </c>
+      <c r="AC2">
+        <v>1.4265851003066854</v>
+      </c>
+      <c r="AD2">
+        <v>6.4836166844252832</v>
+      </c>
+      <c r="AE2">
+        <v>2.6359734215181918</v>
+      </c>
+      <c r="AF2">
+        <v>3.0790168382307659</v>
+      </c>
+      <c r="AG2">
+        <v>3.4146744585557087</v>
+      </c>
+      <c r="AH2">
+        <v>3.1665167326359467</v>
+      </c>
+      <c r="AI2">
+        <v>4.7128793424123172</v>
+      </c>
+      <c r="AJ2">
+        <v>2.6400987612449009</v>
+      </c>
+      <c r="AK2">
+        <v>3.1645107253903246</v>
+      </c>
+      <c r="AL2">
+        <v>0.51591797443800869</v>
+      </c>
+      <c r="AM2">
         <v>3.479341849987208</v>
       </c>
-      <c r="F2">
-        <v>2.1154517636233812</v>
-      </c>
-      <c r="G2">
-        <v>2.1616492766350648</v>
-      </c>
-      <c r="H2">
-        <v>1.7054476112877672</v>
-      </c>
-      <c r="I2">
-        <v>2.8937407179418271</v>
-      </c>
-      <c r="J2">
-        <v>3.3175021065041719</v>
-      </c>
-      <c r="K2">
-        <v>1.0838551893946435</v>
-      </c>
-      <c r="L2">
-        <v>1.1870097123300389</v>
-      </c>
-      <c r="M2">
-        <v>0.53455278672527107</v>
-      </c>
-      <c r="N2">
-        <v>2.3772960972015977</v>
-      </c>
-      <c r="P2">
-        <v>3.5872872277745391</v>
-      </c>
-      <c r="Q2">
-        <v>0.4881473745505106</v>
-      </c>
-      <c r="R2">
-        <v>-0.59112469376488797</v>
-      </c>
-      <c r="T2">
-        <v>2.8185917166785606</v>
-      </c>
-      <c r="U2">
-        <v>0.74179220292483539</v>
-      </c>
-      <c r="V2">
-        <v>2.4413388621768024</v>
-      </c>
-      <c r="W2">
-        <v>-0.56990561779591331</v>
-      </c>
-      <c r="X2">
-        <v>1.1373125780842277</v>
-      </c>
-      <c r="Y2">
-        <v>4.2444364815229685</v>
-      </c>
-      <c r="Z2">
-        <v>2.5627620270980103</v>
-      </c>
-      <c r="AA2">
-        <v>5.5424456962291044</v>
-      </c>
-      <c r="AB2">
-        <v>4.7743794396531101</v>
-      </c>
-      <c r="AC2">
-        <v>1.4265851091745543</v>
-      </c>
-      <c r="AD2">
-        <v>6.4836166800376498</v>
-      </c>
-      <c r="AE2">
-        <v>2.635973422037853</v>
-      </c>
-      <c r="AF2">
-        <v>3.0790168453944595</v>
-      </c>
-      <c r="AG2">
-        <v>3.4146744680253076</v>
-      </c>
-      <c r="AH2">
-        <v>3.1665167372453817</v>
-      </c>
-      <c r="AI2">
-        <v>4.712879381924397</v>
-      </c>
-      <c r="AJ2">
-        <v>2.6400987691734765</v>
-      </c>
-      <c r="AK2">
-        <v>3.1645107297347099</v>
-      </c>
-      <c r="AL2">
-        <v>0.51591798284468382</v>
-      </c>
-      <c r="AM2">
-        <v>3.4793418712041668</v>
-      </c>
       <c r="AO2">
-        <v>5.575993768280199</v>
+        <v>5.5759937725915529</v>
       </c>
       <c r="AP2">
-        <v>3.5786586356831913</v>
+        <v>3.5786586278699906</v>
       </c>
       <c r="AR2">
-        <v>4.7454234020128512</v>
+        <v>4.745423402336522</v>
       </c>
       <c r="AS2">
-        <v>5.067472514111417</v>
+        <v>5.0674724984806039</v>
       </c>
       <c r="AT2">
-        <v>2.809646839580112</v>
+        <v>2.809646860966299</v>
       </c>
       <c r="AU2">
-        <v>1.6510253843761096</v>
+        <v>1.6510253572813125</v>
       </c>
       <c r="AV2">
-        <v>3.4246123799031016</v>
+        <v>3.4246123870777772</v>
       </c>
       <c r="AW2">
-        <v>1.9331400774068246</v>
+        <v>1.9331400513498667</v>
       </c>
       <c r="AX2">
-        <v>5.2322388011529277</v>
+        <v>5.2322387867157749</v>
       </c>
       <c r="AY2">
-        <v>5.5822545620103279</v>
+        <v>5.5822545518932021</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.9524522001931957</v>
+      </c>
+      <c r="C3">
+        <v>2.1667453166495996</v>
+      </c>
+      <c r="D3">
+        <v>4.0687111985710462</v>
+      </c>
+      <c r="E3">
+        <v>5.0083434807655056</v>
+      </c>
+      <c r="F3">
+        <v>1.5463902458567884</v>
+      </c>
+      <c r="G3">
+        <v>3.065634036626776</v>
+      </c>
+      <c r="H3">
+        <v>0.4326834517753006</v>
+      </c>
+      <c r="I3">
+        <v>0.97385150961526634</v>
+      </c>
+      <c r="J3">
+        <v>4.1217859843425515</v>
+      </c>
+      <c r="K3">
+        <v>4.748065054196978</v>
+      </c>
+      <c r="L3">
+        <v>3.5164704985968576</v>
+      </c>
+      <c r="M3">
+        <v>2.4528375657157472E-2</v>
+      </c>
+      <c r="N3">
         <v>2.2032100745536449</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-0.75226107008933984</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.7025084312204624</v>
+      </c>
+      <c r="Q3">
+        <v>1.5445803493132915</v>
+      </c>
+      <c r="R3">
+        <v>0.81958017826096596</v>
+      </c>
+      <c r="S3">
+        <v>3.5990752447925956</v>
+      </c>
+      <c r="T3">
+        <v>3.4924092800213358</v>
+      </c>
+      <c r="U3">
+        <v>2.5802039441907469</v>
+      </c>
+      <c r="V3">
+        <v>2.5676070258700463</v>
+      </c>
+      <c r="W3">
+        <v>0.48040992951805006</v>
+      </c>
+      <c r="X3">
+        <v>-0.1472348900451429</v>
+      </c>
+      <c r="Y3">
+        <v>5.1179149664764987</v>
+      </c>
+      <c r="Z3">
+        <v>3.0129023668809487</v>
+      </c>
+      <c r="AA3">
+        <v>5.1237030630898257</v>
+      </c>
+      <c r="AB3">
+        <v>4.5979175741360265</v>
+      </c>
+      <c r="AC3">
+        <v>5.7295549924976612</v>
+      </c>
+      <c r="AD3">
+        <v>6.6502142755930862</v>
+      </c>
+      <c r="AE3">
+        <v>4.2374879004313026</v>
+      </c>
+      <c r="AF3">
+        <v>3.4970033699067566</v>
+      </c>
+      <c r="AG3">
+        <v>2.5719661380206973</v>
+      </c>
+      <c r="AH3">
+        <v>2.0410624486572204</v>
+      </c>
+      <c r="AI3">
+        <v>4.7089318146584178</v>
+      </c>
+      <c r="AJ3">
+        <v>5.636489080512602</v>
+      </c>
+      <c r="AK3">
+        <v>4.3823713896647849</v>
+      </c>
+      <c r="AL3">
+        <v>2.8516846987247608</v>
+      </c>
+      <c r="AM3">
         <v>3.6460566198073323</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-9.6784206100009193E-2</v>
       </c>
-      <c r="F3">
-        <v>1.5463902505578315</v>
-      </c>
-      <c r="G3">
-        <v>3.0656340404427782</v>
-      </c>
-      <c r="H3">
-        <v>0.43268345113828632</v>
-      </c>
-      <c r="I3">
-        <v>0.97385151228486422</v>
-      </c>
-      <c r="J3">
-        <v>4.121785994727488</v>
-      </c>
-      <c r="K3">
-        <v>4.7480650547162186</v>
-      </c>
-      <c r="L3">
-        <v>3.5164705040760023</v>
-      </c>
-      <c r="M3">
-        <v>2.4565511982586059E-2</v>
-      </c>
-      <c r="N3">
-        <v>2.2032100752775867</v>
-      </c>
-      <c r="O3">
-        <v>-0.75226106965714645</v>
-      </c>
-      <c r="P3">
-        <v>3.7025084399960884</v>
-      </c>
-      <c r="Q3">
-        <v>1.5445803559753981</v>
-      </c>
-      <c r="R3">
-        <v>0.81958019990939146</v>
-      </c>
-      <c r="S3">
-        <v>3.5990752509884394</v>
-      </c>
-      <c r="T3">
-        <v>3.4924092853850888</v>
-      </c>
-      <c r="U3">
-        <v>2.5802039512715274</v>
-      </c>
-      <c r="V3">
-        <v>2.5676070221048191</v>
-      </c>
-      <c r="W3">
-        <v>0.48040993049001457</v>
-      </c>
-      <c r="X3">
-        <v>-0.14723488662387649</v>
-      </c>
-      <c r="Y3">
-        <v>5.1179149772604466</v>
-      </c>
-      <c r="Z3">
-        <v>3.0129023714747705</v>
-      </c>
-      <c r="AA3">
-        <v>5.1237030549358744</v>
-      </c>
-      <c r="AB3">
-        <v>4.5979175754413282</v>
-      </c>
-      <c r="AC3">
-        <v>5.7295550167502149</v>
-      </c>
-      <c r="AD3">
-        <v>6.650214274831308</v>
-      </c>
-      <c r="AE3">
-        <v>4.2374879220574879</v>
-      </c>
-      <c r="AF3">
-        <v>3.4970033844238837</v>
-      </c>
-      <c r="AG3">
-        <v>2.5719661461974832</v>
-      </c>
-      <c r="AH3">
-        <v>2.0410624545470752</v>
-      </c>
-      <c r="AI3">
-        <v>4.7089318625854526</v>
-      </c>
-      <c r="AJ3">
-        <v>5.6364890976446747</v>
-      </c>
-      <c r="AK3">
-        <v>4.3823714234608246</v>
-      </c>
-      <c r="AL3">
-        <v>2.8516847118744852</v>
-      </c>
-      <c r="AM3">
-        <v>3.6460566364020681</v>
-      </c>
-      <c r="AN3">
-        <v>-9.6784204919918959E-2</v>
-      </c>
       <c r="AO3">
-        <v>5.8944939465955501</v>
+        <v>5.8944939061238451</v>
       </c>
       <c r="AP3">
-        <v>1.5611193717665239</v>
+        <v>1.5611193648847723</v>
       </c>
       <c r="AQ3">
-        <v>2.3909692395808388</v>
+        <v>2.3909692343347553</v>
       </c>
       <c r="AR3">
-        <v>5.5888144032329548</v>
+        <v>5.5888144061457217</v>
       </c>
       <c r="AS3">
-        <v>3.8494867987265398</v>
+        <v>3.8494868020900177</v>
       </c>
       <c r="AT3">
-        <v>4.1973935778805931</v>
+        <v>4.1973935599866845</v>
       </c>
       <c r="AU3">
-        <v>2.4948448026837942</v>
+        <v>2.494844803471695</v>
       </c>
       <c r="AV3">
-        <v>2.6333023961004347</v>
+        <v>2.6333023762330257</v>
       </c>
       <c r="AW3">
-        <v>2.8661342584489082</v>
+        <v>2.866134060672838</v>
       </c>
       <c r="AX3">
-        <v>2.9208010275459588</v>
+        <v>2.9208009790160365</v>
       </c>
       <c r="AY3">
-        <v>6.0543821967770839</v>
+        <v>6.0543821868196677</v>
       </c>
     </row>
   </sheetData>
